--- a/biology/Zoologie/Bryconops/Bryconops.xlsx
+++ b/biology/Zoologie/Bryconops/Bryconops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bryconops est un genre de poisson d'eau douce d'Amérique du Sud de la famille des Characidae. Communément appelé "saltadores" ou "jumpers" (sauteurs). Ils vivent généralement dans les eaux claires et acides. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (25 juin 2015)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (25 juin 2015):
 Bryconops affinis (Günther, 1864)
 Bryconops alburnoides Kner, 1858
 Bryconops caudomaculatus (Günther, 1864)
